--- a/data/trans_camb/P32A-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P32A-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>0.7812784825237253</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.373878252884225</v>
+        <v>1.373878252884224</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.1928320711057278</v>
@@ -655,7 +655,7 @@
         <v>0.4540382679670018</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.8523974263005364</v>
+        <v>0.8523974263005363</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1.177000119503306</v>
@@ -664,7 +664,7 @@
         <v>0.6959811150388459</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>1.234256766269528</v>
+        <v>1.234256766269527</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.7473248933382366</v>
+        <v>-0.7799250074448404</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.485318330858574</v>
+        <v>-1.576092128619722</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.229654499889773</v>
+        <v>-1.202202168435296</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.376310829750091</v>
+        <v>-1.344941200287356</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.198646159533127</v>
+        <v>-0.9412918111611204</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.8297808165443156</v>
+        <v>-0.6774110736471513</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.3481592595234015</v>
+        <v>-0.4427814970205118</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.9237693707119197</v>
+        <v>-0.7474708297107281</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.453056065919442</v>
+        <v>-0.3397631387406513</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.980191591123858</v>
+        <v>3.756561523076053</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.976076718619407</v>
+        <v>2.816802065288353</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.410165418178573</v>
+        <v>4.276873633955177</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.385304831235444</v>
+        <v>1.416209961688157</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.95939730013519</v>
+        <v>1.868194956502637</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.198226467471049</v>
+        <v>3.099824733234992</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.766275216393737</v>
+        <v>2.73886100123543</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.08673820693345</v>
+        <v>2.137345664500838</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.223260651678544</v>
+        <v>3.163672450624822</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.3533534387707886</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.6213720407873917</v>
+        <v>0.6213720407873915</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.3810818037620946</v>
@@ -769,7 +769,7 @@
         <v>0.444148770407834</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.7876558907429015</v>
+        <v>0.7876558907429009</v>
       </c>
     </row>
     <row r="8">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3059157748395482</v>
+        <v>-0.2925149222317453</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4593410480147412</v>
+        <v>-0.5027541168371165</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4581342738871364</v>
+        <v>-0.4463920415450987</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.1698632193652511</v>
+        <v>-0.2345331094924588</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3922734493318125</v>
+        <v>-0.3084330669403108</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2560760454210231</v>
+        <v>-0.2603144757396221</v>
       </c>
     </row>
     <row r="9">
@@ -809,25 +809,25 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.850492420196125</v>
+        <v>3.442905149089555</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.720641166112538</v>
+        <v>2.658151802065768</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>4.579261160847229</v>
+        <v>3.918237882912126</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>3.681585060740143</v>
+        <v>3.342007907980277</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.999184531906439</v>
+        <v>3.102797034357109</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>3.555240211901048</v>
+        <v>3.710357765104261</v>
       </c>
     </row>
     <row r="10">
@@ -866,7 +866,7 @@
         <v>0.1833764765151546</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.5718096561426207</v>
+        <v>0.571809656142621</v>
       </c>
     </row>
     <row r="11">
@@ -877,29 +877,29 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.847959509551191</v>
+        <v>-0.931098164287999</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.434360495189792</v>
+        <v>-1.496029963316044</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.273734856712976</v>
+        <v>-1.045051344256741</v>
       </c>
       <c r="F11" s="5" t="inlineStr"/>
       <c r="G11" s="5" t="n">
-        <v>0.3260115400788509</v>
+        <v>0.3269480595807762</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.494487630667535</v>
+        <v>0.522038534850672</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.7369232148039804</v>
+        <v>-0.8133260540639486</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.7674302966434211</v>
+        <v>-0.7966822825617276</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.4241011639442483</v>
+        <v>-0.4607132012390028</v>
       </c>
     </row>
     <row r="12">
@@ -910,29 +910,29 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.372085690934656</v>
+        <v>2.277340381986039</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.201028386517443</v>
+        <v>0.9851252189206007</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.530015517184986</v>
+        <v>1.719704136744147</v>
       </c>
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="n">
-        <v>2.888210762429167</v>
+        <v>3.090397991804643</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.294787312789135</v>
+        <v>4.419751792314569</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.448664568476772</v>
+        <v>1.290156858221333</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.263697212998794</v>
+        <v>1.23126721374471</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.859404347391296</v>
+        <v>1.763662468573129</v>
       </c>
     </row>
     <row r="13">
@@ -969,7 +969,7 @@
         <v>0.180232165674439</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.5620049781664542</v>
+        <v>0.5620049781664547</v>
       </c>
     </row>
     <row r="14">
@@ -980,25 +980,25 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5122119013082893</v>
+        <v>-0.5405039930941575</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7368416736201897</v>
+        <v>-0.7293052980053838</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6680257702270237</v>
+        <v>-0.5810256763273913</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>-0.5115142240085787</v>
+        <v>-0.6089442969361243</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5686489590771061</v>
+        <v>-0.5848344489753313</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3580473333076026</v>
+        <v>-0.383080355919916</v>
       </c>
     </row>
     <row r="15">
@@ -1009,25 +1009,25 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3.362051209503916</v>
+        <v>2.726029212254569</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.021951390257157</v>
+        <v>1.39293765348007</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.831540583031926</v>
+        <v>2.600394689847466</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>2.780400401576381</v>
+        <v>2.303555678934188</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.117233718311887</v>
+        <v>2.141540333018527</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>3.020340445854482</v>
+        <v>2.986760296749236</v>
       </c>
     </row>
     <row r="16">
@@ -1077,31 +1077,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4948453440527981</v>
+        <v>0.5344155131684508</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.4145940122735561</v>
+        <v>-0.5316712401335366</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.4587508398570035</v>
+        <v>-0.5184214459123575</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4255917951560623</v>
+        <v>0.4176841427162475</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3774312123736213</v>
+        <v>0.2476055433841022</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3290607018270347</v>
+        <v>0.218921708067962</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8272658864577479</v>
+        <v>0.7934983675504482</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04508724481353975</v>
+        <v>0.1748459529320592</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.08991165639459073</v>
+        <v>0.1108194442861557</v>
       </c>
     </row>
     <row r="18">
@@ -1112,31 +1112,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.539646057940533</v>
+        <v>3.506868003052398</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.893393677424735</v>
+        <v>1.893930528476963</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.57394593938304</v>
+        <v>1.551598566981931</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.789837287736622</v>
+        <v>4.92372092818214</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.754831167042852</v>
+        <v>4.41159532897751</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.195250060719079</v>
+        <v>4.7642681535373</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.450174235525864</v>
+        <v>3.304329034939621</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.258929104888252</v>
+        <v>2.19877881797063</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.180450447114235</v>
+        <v>2.271530317002667</v>
       </c>
     </row>
     <row r="19">
@@ -1162,7 +1162,7 @@
         <v>5.684313783034145</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>5.636845891862092</v>
+        <v>5.636845891862093</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>3.811185889137281</v>
@@ -1182,25 +1182,25 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1628762536503314</v>
+        <v>0.06774478037689091</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7152689824556048</v>
+        <v>-0.7925681549858282</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7642645379874238</v>
+        <v>-0.7540964515328958</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>0.3435045747896111</v>
+        <v>0.3437353218633834</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2571125488715592</v>
+        <v>-0.1505797502214375</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2217208491993432</v>
+        <v>-0.2337590207264832</v>
       </c>
     </row>
     <row r="21">
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>20.17612613104173</v>
+        <v>18.82257051032621</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>11.26462396397075</v>
+        <v>10.88296937077229</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>9.480232377541334</v>
+        <v>8.816086376622621</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>15.8389645723142</v>
+        <v>17.77382373329483</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>12.20483627238672</v>
+        <v>11.50835008012871</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>13.57173832225573</v>
+        <v>11.1857872949996</v>
       </c>
     </row>
     <row r="22">
@@ -1279,31 +1279,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6229447656413526</v>
+        <v>0.6496261356539663</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.012483758154578</v>
+        <v>1.018930839043456</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9932118211661163</v>
+        <v>1.024953987288612</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.054119986453189</v>
+        <v>-2.666216205617634</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.039497592604064</v>
+        <v>-2.252640803377547</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.2283164523132747</v>
+        <v>-0.2428560031704435</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.09486339936298642</v>
+        <v>0.08522437904987892</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4914830247497529</v>
+        <v>0.5007859473485716</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.147696977125434</v>
+        <v>1.09264849606531</v>
       </c>
     </row>
     <row r="24">
@@ -1314,31 +1314,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.971709072588228</v>
+        <v>3.982222277797443</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.45869251672393</v>
+        <v>4.74313000252675</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.606436903330121</v>
+        <v>3.61040337796513</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.067493322184433</v>
+        <v>1.094566989837187</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.071085615521347</v>
+        <v>2.076185273528587</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.496372769402374</v>
+        <v>5.224561103586784</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.399113061333821</v>
+        <v>2.633631009548965</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.125444873523059</v>
+        <v>3.010735683227085</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.798884973515765</v>
+        <v>3.60808449279142</v>
       </c>
     </row>
     <row r="25">
@@ -1434,7 +1434,7 @@
         <v>0.871248152446735</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.8032331278038753</v>
+        <v>0.803233127803875</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0.5271595629736003</v>
@@ -1463,31 +1463,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.7086080730078981</v>
+        <v>0.6511138577194157</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.08854852455291491</v>
+        <v>0.1653945811086364</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.06097971143822461</v>
+        <v>0.05732354844210024</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.0783102423575126</v>
+        <v>-0.1107059200172424</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2776586164166309</v>
+        <v>0.2414804248899514</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.8930265050954779</v>
+        <v>0.8663804599266258</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.5328644698623886</v>
+        <v>0.5585678807808816</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.3057235882621434</v>
+        <v>0.321527841398109</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.5471266788821867</v>
+        <v>0.4942779252982359</v>
       </c>
     </row>
     <row r="30">
@@ -1498,31 +1498,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.401279115999305</v>
+        <v>2.42162694597743</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.630563788548875</v>
+        <v>1.689950686025004</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.585362123536526</v>
+        <v>1.489353682932134</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.377920248091338</v>
+        <v>1.369045181149075</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.913196939504217</v>
+        <v>1.963222540852902</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.235118628548618</v>
+        <v>3.192751785761088</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.823173859266362</v>
+        <v>1.852650358691493</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.552002222647752</v>
+        <v>1.504461148336678</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.829715809900417</v>
+        <v>1.763086053095933</v>
       </c>
     </row>
     <row r="31">
@@ -1539,7 +1539,7 @@
         <v>0.8419193394150918</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.7761939034910041</v>
+        <v>0.7761939034910038</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>1.565644329309938</v>
@@ -1548,7 +1548,7 @@
         <v>3.042819633543866</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>5.466992554183664</v>
+        <v>5.466992554183663</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>1.435802388077299</v>
@@ -1568,31 +1568,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.4027376889115298</v>
+        <v>0.4254274286608903</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.04245041732437463</v>
+        <v>0.03025778918186284</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.03090668939067682</v>
+        <v>0.01978388733638222</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.595999585585408</v>
+        <v>-0.4525981517024279</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.02505590835856964</v>
+        <v>0.08914879462574879</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9315730305686174</v>
+        <v>0.7920543283736771</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.399503899731912</v>
+        <v>0.4854347061041618</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2151456411970796</v>
+        <v>0.2524248493021558</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.458219043442031</v>
+        <v>0.3923441480849298</v>
       </c>
     </row>
     <row r="33">
@@ -1603,29 +1603,27 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>3.276931498087106</v>
+        <v>3.362621292960655</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.199188723941897</v>
+        <v>2.350672638991424</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.158961694605406</v>
+        <v>2.056863788269887</v>
       </c>
       <c r="F33" s="6" t="inlineStr"/>
-      <c r="G33" s="6" t="n">
-        <v>17.35209006878146</v>
-      </c>
+      <c r="G33" s="6" t="inlineStr"/>
       <c r="H33" s="6" t="n">
-        <v>25.16337805801527</v>
+        <v>27.56822115491337</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>2.821578761356944</v>
+        <v>3.249235724745378</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>2.574258109207806</v>
+        <v>2.54274108967842</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>2.996908136173458</v>
+        <v>3.056913879703365</v>
       </c>
     </row>
     <row r="34">
